--- a/data/New Microsoft Excel Worksheet.xlsx
+++ b/data/New Microsoft Excel Worksheet.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yinco\boris2008.github.io\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A5F9A2-D0E4-44C5-8A29-D3162B1FEA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5136" yWindow="7188" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="west" sheetId="1" r:id="rId1"/>
+    <sheet name="midwest" sheetId="2" r:id="rId2"/>
+    <sheet name="northeast" sheetId="3" r:id="rId3"/>
+    <sheet name="south" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +27,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>mobiles&amp;Tablets</t>
+  </si>
+  <si>
+    <t>applicances</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>computing</t>
+  </si>
+  <si>
+    <t>women's fashion</t>
+  </si>
+  <si>
+    <t>men's fashion</t>
+  </si>
+  <si>
+    <t>superstore</t>
+  </si>
+  <si>
+    <t>beauty&amp; grooming</t>
+  </si>
+  <si>
+    <t>home&amp;living</t>
+  </si>
+  <si>
+    <t>health&amp;sports</t>
+  </si>
+  <si>
+    <t>kids&amp;baby</t>
+  </si>
+  <si>
+    <t>soghaat</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +389,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EECBFA6-4640-4311-9333-78DD23AA5D98}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91ECE47-97AB-40BD-A310-F1BCAD218E9E}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B67A70B-6860-46DD-9BB9-0EE5B740A0F1}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>